--- a/biology/Botanique/Oncidium_cebolleta/Oncidium_cebolleta.xlsx
+++ b/biology/Botanique/Oncidium_cebolleta/Oncidium_cebolleta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oncidium cebolleta est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une grande orchidée épiphyte d'Amérique tropicale.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Oncidium cepula Hoffmanns. 1843;
 Oncidium glaziovii Cogn. 1906;
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dispersée dans toute l'Amérique tropicale. Elle est protégée en Martinique.
 </t>
@@ -579,9 +595,11 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inflorescences latérales ou tombantes, jusqu'à 75 cm de long[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inflorescences latérales ou tombantes, jusqu'à 75 cm de long.
 Fleurs jaunes tachées de brun-violet.
 </t>
         </is>
@@ -611,10 +629,12 @@
           <t>Utilisation en tant que psychotrope</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Oncidium cebolleta a été utilisé par les Chibchas durant l'époque pré-hispaniques en tant que substitut au Peyotl. De nos jours les Tarahumaras la nomme « mescalito » (en référence à la mescaline, bien qu'aucune étude ne démontre sa présence dans la plante[2]).
-Les feuilles de la plante sont traditionnellement consommée tranchées, écrasées puis bouillies dans de l'eau salée[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Oncidium cebolleta a été utilisé par les Chibchas durant l'époque pré-hispaniques en tant que substitut au Peyotl. De nos jours les Tarahumaras la nomme « mescalito » (en référence à la mescaline, bien qu'aucune étude ne démontre sa présence dans la plante).
+Les feuilles de la plante sont traditionnellement consommée tranchées, écrasées puis bouillies dans de l'eau salée.
 </t>
         </is>
       </c>
